--- a/public/templates/pd.xlsx
+++ b/public/templates/pd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\cbt\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\cbt-darmah\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F67667D-45EE-4B2E-8903-BC673DF89ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8708B786-9F36-46D6-ABD7-9025AEF4531D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="229">
   <si>
     <t>ACH. ALBI FAHRIADI</t>
   </si>
@@ -28,9 +28,6 @@
     <t>3105947526</t>
   </si>
   <si>
-    <t>0072529655</t>
-  </si>
-  <si>
     <t>Kelas 9</t>
   </si>
   <si>
@@ -49,36 +46,9 @@
     <t>0084157932</t>
   </si>
   <si>
-    <t>0071694499</t>
-  </si>
-  <si>
-    <t>0083197228</t>
-  </si>
-  <si>
-    <t>AHMAD SURAHMAN RIZKI</t>
-  </si>
-  <si>
     <t>0089668209</t>
   </si>
   <si>
-    <t>AISYATUR ROHMAH</t>
-  </si>
-  <si>
-    <t>3071546004</t>
-  </si>
-  <si>
-    <t>ALFAN MUHTARIL ILHAMI</t>
-  </si>
-  <si>
-    <t>0077502109</t>
-  </si>
-  <si>
-    <t>ALFIN QOMARIYAH</t>
-  </si>
-  <si>
-    <t>3082264590</t>
-  </si>
-  <si>
     <t>0093575945</t>
   </si>
   <si>
@@ -88,27 +58,12 @@
     <t>0095639572</t>
   </si>
   <si>
-    <t>0078998477</t>
-  </si>
-  <si>
-    <t>ANI NURUL MAZIDAH</t>
-  </si>
-  <si>
     <t>0086516405</t>
   </si>
   <si>
     <t>0089543736</t>
   </si>
   <si>
-    <t>AULIA SINTIA BELLA</t>
-  </si>
-  <si>
-    <t>3086007557</t>
-  </si>
-  <si>
-    <t>0076805617</t>
-  </si>
-  <si>
     <t>BADRIATUL AIRA</t>
   </si>
   <si>
@@ -127,84 +82,36 @@
     <t>0087732340</t>
   </si>
   <si>
-    <t>DIAN JUNITA DEWI</t>
-  </si>
-  <si>
-    <t>0082399196</t>
-  </si>
-  <si>
     <t>0108878277</t>
   </si>
   <si>
-    <t>FAIDATUS SYADIDAH</t>
-  </si>
-  <si>
-    <t>0079365745</t>
-  </si>
-  <si>
     <t>0094816297</t>
   </si>
   <si>
-    <t>0079244991</t>
-  </si>
-  <si>
-    <t>HERLI ANSAH</t>
-  </si>
-  <si>
-    <t>0088703113</t>
-  </si>
-  <si>
     <t>0083384900</t>
   </si>
   <si>
-    <t>0087991190</t>
-  </si>
-  <si>
     <t>INDAH AYU CITRA PUSPITA</t>
   </si>
   <si>
     <t>0106170260</t>
   </si>
   <si>
-    <t>IRMA MAULINDA</t>
-  </si>
-  <si>
-    <t>0078019924</t>
-  </si>
-  <si>
     <t>0079471817</t>
   </si>
   <si>
-    <t>0081887309</t>
-  </si>
-  <si>
-    <t>JAZILAH</t>
-  </si>
-  <si>
     <t>0103987167</t>
   </si>
   <si>
     <t>0096797613</t>
   </si>
   <si>
-    <t>MADINATUL KAMILAH</t>
-  </si>
-  <si>
-    <t>0078000759</t>
-  </si>
-  <si>
     <t>MAMLUATUL HASANAH</t>
   </si>
   <si>
     <t>0104228719</t>
   </si>
   <si>
-    <t>0072726104</t>
-  </si>
-  <si>
-    <t>0085967975</t>
-  </si>
-  <si>
     <t>MITA DEWI LESTARY</t>
   </si>
   <si>
@@ -223,30 +130,15 @@
     <t>0084623870</t>
   </si>
   <si>
-    <t>MOH ROSIHOL AMIEN</t>
-  </si>
-  <si>
-    <t>0071758139</t>
-  </si>
-  <si>
     <t>3091353221</t>
   </si>
   <si>
-    <t>0077538164</t>
-  </si>
-  <si>
     <t>0081906944</t>
   </si>
   <si>
     <t>0081440375</t>
   </si>
   <si>
-    <t>MOH. RIFAN EFENDI</t>
-  </si>
-  <si>
-    <t>0071044695</t>
-  </si>
-  <si>
     <t>MOH. SALMAN SA'EDI</t>
   </si>
   <si>
@@ -295,12 +187,6 @@
     <t>RIFKA AMALIA FIRDAUSI</t>
   </si>
   <si>
-    <t>SAKILA TUNNISAK</t>
-  </si>
-  <si>
-    <t>0105116358</t>
-  </si>
-  <si>
     <t>0083951742</t>
   </si>
   <si>
@@ -361,18 +247,12 @@
     <t>tingkat</t>
   </si>
   <si>
-    <t>ACH. FAIRUZ ABADY</t>
-  </si>
-  <si>
     <t>ACHMAD HASAN SYA'BI</t>
   </si>
   <si>
     <t>AFFAN NUR BASMAN KUSUMA</t>
   </si>
   <si>
-    <t>AHMAD FAUZI</t>
-  </si>
-  <si>
     <t>AISYAH WILDAN FARADIS</t>
   </si>
   <si>
@@ -388,9 +268,6 @@
     <t>AULIA FITRI</t>
   </si>
   <si>
-    <t>AZWIN DWI ABDALLAH MUBAROK</t>
-  </si>
-  <si>
     <t>BAGINDA KENDINATA</t>
   </si>
   <si>
@@ -409,15 +286,9 @@
     <t>FERDIAN HIDAYATULLAH</t>
   </si>
   <si>
-    <t>FIRDAUS ALFAROBI</t>
-  </si>
-  <si>
     <t>IFA NURSAFIYAH</t>
   </si>
   <si>
-    <t>IMROATUS SHOLEHAH</t>
-  </si>
-  <si>
     <t>JANNATUL FIRDAUSIYAH</t>
   </si>
   <si>
@@ -427,18 +298,9 @@
     <t>KAMILATUN NABILA</t>
   </si>
   <si>
-    <t>MARIO WILLIYONG GUNAWAN</t>
-  </si>
-  <si>
-    <t>MAULIDATUS SHOLEHA</t>
-  </si>
-  <si>
     <t>MOH. ALFIN AINUN NAJIB</t>
   </si>
   <si>
-    <t>MOH. FARHAN KAMIL</t>
-  </si>
-  <si>
     <t>MOH. FAUZAN IQBAL MAULANA</t>
   </si>
   <si>
@@ -550,9 +412,6 @@
     <t>2009-04-20</t>
   </si>
   <si>
-    <t>2010-04-28</t>
-  </si>
-  <si>
     <t>2009-12-02</t>
   </si>
   <si>
@@ -619,72 +478,9 @@
     <t>2008-12-21</t>
   </si>
   <si>
-    <t>2007-08-08</t>
-  </si>
-  <si>
-    <t>2007-07-29</t>
-  </si>
-  <si>
-    <t>2008-01-18</t>
-  </si>
-  <si>
-    <t>2007-08-09</t>
-  </si>
-  <si>
-    <t>2007-05-19</t>
-  </si>
-  <si>
     <t>2008-02-28</t>
   </si>
   <si>
-    <t>2007-08-10</t>
-  </si>
-  <si>
-    <t>2008-01-05</t>
-  </si>
-  <si>
-    <t>2007-12-18</t>
-  </si>
-  <si>
-    <t>2008-06-30</t>
-  </si>
-  <si>
-    <t>2007-09-18</t>
-  </si>
-  <si>
-    <t>2007-11-07</t>
-  </si>
-  <si>
-    <t>2008-01-21</t>
-  </si>
-  <si>
-    <t>2008-01-08</t>
-  </si>
-  <si>
-    <t>2007-04-04</t>
-  </si>
-  <si>
-    <t>2007-09-09</t>
-  </si>
-  <si>
-    <t>2007-10-24</t>
-  </si>
-  <si>
-    <t>2007-12-04</t>
-  </si>
-  <si>
-    <t>2008-03-24</t>
-  </si>
-  <si>
-    <t>2007-07-31</t>
-  </si>
-  <si>
-    <t>2007-02-13</t>
-  </si>
-  <si>
-    <t>2007-04-23</t>
-  </si>
-  <si>
     <t>2008-05-09</t>
   </si>
   <si>
@@ -704,6 +500,213 @@
   </si>
   <si>
     <t>2007-05-15</t>
+  </si>
+  <si>
+    <t>AHMAD ROYHAN IRSYADI</t>
+  </si>
+  <si>
+    <t>BARROTUN JESILAH</t>
+  </si>
+  <si>
+    <t>FAIQOTUL KAMILIA</t>
+  </si>
+  <si>
+    <t>JHOFAN MAULANA MAHRIBI</t>
+  </si>
+  <si>
+    <t>MIFTAHUL ARIFIN</t>
+  </si>
+  <si>
+    <t>NABILATUS SHOLEHAH</t>
+  </si>
+  <si>
+    <t>ULFATUL MUNAWARAH</t>
+  </si>
+  <si>
+    <t>0105865002</t>
+  </si>
+  <si>
+    <t>0113972348</t>
+  </si>
+  <si>
+    <t>0106107538</t>
+  </si>
+  <si>
+    <t>0112694875</t>
+  </si>
+  <si>
+    <t>0106278874</t>
+  </si>
+  <si>
+    <t>0128216641</t>
+  </si>
+  <si>
+    <t>0107076871</t>
+  </si>
+  <si>
+    <t>0113555291</t>
+  </si>
+  <si>
+    <t>0103391774</t>
+  </si>
+  <si>
+    <t>0108255653</t>
+  </si>
+  <si>
+    <t>3112039749</t>
+  </si>
+  <si>
+    <t>0104676371</t>
+  </si>
+  <si>
+    <t>0101199801</t>
+  </si>
+  <si>
+    <t>0107514663</t>
+  </si>
+  <si>
+    <t>0097300380</t>
+  </si>
+  <si>
+    <t>0105764287</t>
+  </si>
+  <si>
+    <t>0119938328</t>
+  </si>
+  <si>
+    <t>0101048184</t>
+  </si>
+  <si>
+    <t>0126118463</t>
+  </si>
+  <si>
+    <t>0101675244</t>
+  </si>
+  <si>
+    <t>0103581794</t>
+  </si>
+  <si>
+    <t>0106254241</t>
+  </si>
+  <si>
+    <t>3100644654</t>
+  </si>
+  <si>
+    <t>2010-11-23</t>
+  </si>
+  <si>
+    <t>2011-02-20</t>
+  </si>
+  <si>
+    <t>2010-07-02</t>
+  </si>
+  <si>
+    <t>2011-02-02</t>
+  </si>
+  <si>
+    <t>2010-11-03</t>
+  </si>
+  <si>
+    <t>2011-11-08</t>
+  </si>
+  <si>
+    <t>2010-12-11</t>
+  </si>
+  <si>
+    <t>2011-02-21</t>
+  </si>
+  <si>
+    <t>2010-07-23</t>
+  </si>
+  <si>
+    <t>2010-06-08</t>
+  </si>
+  <si>
+    <t>2011-06-05</t>
+  </si>
+  <si>
+    <t>2010-05-06</t>
+  </si>
+  <si>
+    <t>2010-02-04</t>
+  </si>
+  <si>
+    <t>2010-08-31</t>
+  </si>
+  <si>
+    <t>2011-02-19</t>
+  </si>
+  <si>
+    <t>2010-12-21</t>
+  </si>
+  <si>
+    <t>2011-11-01</t>
+  </si>
+  <si>
+    <t>2010-07-28</t>
+  </si>
+  <si>
+    <t>2012-06-10</t>
+  </si>
+  <si>
+    <t>2010-11-01</t>
+  </si>
+  <si>
+    <t>2010-07-26</t>
+  </si>
+  <si>
+    <t>2010-03-06</t>
+  </si>
+  <si>
+    <t>2010-11-13</t>
+  </si>
+  <si>
+    <t>ALLIVA AZKIYAN NUFUS</t>
+  </si>
+  <si>
+    <t>AMELINDA REGINA DIFA</t>
+  </si>
+  <si>
+    <t>DIAN SAFARI ABROR</t>
+  </si>
+  <si>
+    <t>FAUZUL MUSTA'AN</t>
+  </si>
+  <si>
+    <t>KONITATUL HOLIDAH</t>
+  </si>
+  <si>
+    <t>LIVY REGINA PUTRI</t>
+  </si>
+  <si>
+    <t>MOH. AZKA RAHMAN</t>
+  </si>
+  <si>
+    <t>MOH. FAISAL ANSORI</t>
+  </si>
+  <si>
+    <t>MOH. RIZKY AKMAL RAMADAN</t>
+  </si>
+  <si>
+    <t>MOH. WILDAN KAMIL</t>
+  </si>
+  <si>
+    <t>MOHAMMAD ALVIAN ROHMATULLAH</t>
+  </si>
+  <si>
+    <t>MOHAMMAD FIRMAN AL-BUSTOMI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ADIT RIZQY</t>
+  </si>
+  <si>
+    <t>NADA INDANA ZULFA</t>
+  </si>
+  <si>
+    <t>NAJWA JANNATUL MA'WA</t>
+  </si>
+  <si>
+    <t>SYIFA' MAULIDIYATUZ ZEHROH</t>
   </si>
 </sst>
 </file>
@@ -1056,1497 +1059,1499 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F74"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
         <v>7</v>
       </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
       <c r="E24" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F24" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F25" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F28" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F29" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F30" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F31" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F32" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="F33" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F34" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="F35" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="F36" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F37" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F38" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="F39" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F40" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F41" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F42" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43">
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F43" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F44" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F45" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F46" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F47" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F48" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F49" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F50" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F51" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52">
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F52" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F53" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F54" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F55" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="F56" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58">
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60">
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F61" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62">
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F62" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <v>9</v>
       </c>
       <c r="E63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" t="s">
         <v>155</v>
-      </c>
-      <c r="F63" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64">
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="F64" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65">
         <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F65" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66">
         <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F66" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67">
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="F67" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68">
         <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F68" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69">
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F69" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70">
         <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F70" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71">
         <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F71" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72">
         <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F72" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73">
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F73" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" t="s">
         <v>151</v>
       </c>
-      <c r="B74" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74">
-        <v>9</v>
-      </c>
-      <c r="E74" t="s">
-        <v>155</v>
-      </c>
-      <c r="F74" t="s">
-        <v>227</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D74">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F74">
     <sortCondition ref="C2:C74"/>
     <sortCondition ref="A2:A74"/>
   </sortState>
